--- a/r5-core-main/all-profiles.xlsx
+++ b/r5-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T10:55:15+00:00</t>
+    <t>2024-02-17T11:07:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/all-profiles.xlsx
+++ b/r5-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T11:07:47+00:00</t>
+    <t>2024-02-17T11:16:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/all-profiles.xlsx
+++ b/r5-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T11:16:35+00:00</t>
+    <t>2024-02-17T11:28:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/all-profiles.xlsx
+++ b/r5-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T11:28:57+00:00</t>
+    <t>2024-02-17T14:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/all-profiles.xlsx
+++ b/r5-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:06:09+00:00</t>
+    <t>2024-05-03T09:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/all-profiles.xlsx
+++ b/r5-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:16:39+00:00</t>
+    <t>2024-05-03T09:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/all-profiles.xlsx
+++ b/r5-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:40:54+00:00</t>
+    <t>2024-05-03T10:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/all-profiles.xlsx
+++ b/r5-core-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T10:09:53+00:00</t>
+    <t>2024-05-03T10:46:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
